--- a/results/Depth/Molecule_1/all soltuions.xlsx
+++ b/results/Depth/Molecule_1/all soltuions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\results\Depth\Molecule 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\results\Depth\Molecule_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B04801D-7B91-4FAF-AC12-D6642329294D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278008F-C912-4E66-BCE1-A1E830950D12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{E4E71665-87EB-4480-A52A-0E0AAE8DC683}"/>
   </bookViews>
@@ -46,7 +46,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +82,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FCCFC0-F5FF-4108-90B0-80CB0C1B9636}">
-  <dimension ref="B4:C13"/>
+  <dimension ref="B4:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,8 +552,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <f>C12/SUM(C6:C13)</f>
+        <v>2.5411230856494613E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>